--- a/REGULAR/CITY MARKET/AMBAT, MARILOU.xlsx
+++ b/REGULAR/CITY MARKET/AMBAT, MARILOU.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="425">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1305,6 +1305,9 @@
   </si>
   <si>
     <t>UT(1-4-7)</t>
+  </si>
+  <si>
+    <t>8/1-9/2023</t>
   </si>
 </sst>
 </file>
@@ -2346,8 +2349,8 @@
   <dimension ref="A2:K605"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A526" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E539" sqref="E539"/>
+      <pane ySplit="3720" topLeftCell="A550" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I559" sqref="I559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,7 +2511,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>109.49000000000008</v>
+        <v>110.74000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2518,7 +2521,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>235.79200000000003</v>
+        <v>230.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14756,15 +14759,17 @@
       <c r="B558" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C558" s="13"/>
+      <c r="C558" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D558" s="39">
         <v>2</v>
       </c>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G558" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H558" s="39"/>
       <c r="I558" s="9"/>
@@ -14777,7 +14782,9 @@
       <c r="A559" s="40">
         <v>45139</v>
       </c>
-      <c r="B559" s="20"/>
+      <c r="B559" s="20" t="s">
+        <v>386</v>
+      </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
       <c r="E559" s="9"/>
@@ -14786,10 +14793,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H559" s="39"/>
+      <c r="H559" s="39">
+        <v>7</v>
+      </c>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20"/>
+      <c r="K559" s="20" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">

--- a/REGULAR/CITY MARKET/AMBAT, MARILOU.xlsx
+++ b/REGULAR/CITY MARKET/AMBAT, MARILOU.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="429">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1314,6 +1314,12 @@
   </si>
   <si>
     <t>10/16,17/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>01/03-05,08,09/2024</t>
   </si>
 </sst>
 </file>
@@ -2023,7 +2029,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K606" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K607" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2352,11 +2358,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K606"/>
+  <dimension ref="A2:K607"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <pane ySplit="3720" topLeftCell="A550" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K572" sqref="K572"/>
+      <selection pane="bottomLeft" activeCell="F568" sqref="F568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2523,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>111.24000000000008</v>
+        <v>109.99000000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2527,7 +2533,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>230.54200000000003</v>
+        <v>234.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14837,15 +14843,17 @@
       <c r="B561" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C561" s="13"/>
+      <c r="C561" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D561" s="39">
         <v>2</v>
       </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G561" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
@@ -14881,13 +14889,15 @@
         <v>45231</v>
       </c>
       <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
@@ -14898,23 +14908,31 @@
       <c r="A564" s="40">
         <v>45261</v>
       </c>
-      <c r="B564" s="20"/>
-      <c r="C564" s="13"/>
-      <c r="D564" s="39"/>
+      <c r="B564" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D564" s="39">
+        <v>5</v>
+      </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
+      <c r="K564" s="20" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" s="40">
-        <v>45292</v>
+      <c r="A565" s="48" t="s">
+        <v>427</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -14932,7 +14950,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -14950,7 +14968,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -14968,7 +14986,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -14986,7 +15004,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15004,7 +15022,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15022,7 +15040,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15040,7 +15058,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15058,7 +15076,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15076,7 +15094,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15094,7 +15112,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15112,7 +15130,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15130,7 +15148,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15148,7 +15166,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15166,7 +15184,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15184,7 +15202,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15202,7 +15220,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15220,7 +15238,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15238,7 +15256,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15256,7 +15274,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15274,7 +15292,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15292,7 +15310,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15310,7 +15328,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15328,7 +15346,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15346,7 +15364,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15364,7 +15382,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15382,7 +15400,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15400,7 +15418,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15418,7 +15436,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15436,7 +15454,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15454,7 +15472,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15472,7 +15490,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15490,7 +15508,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15508,7 +15526,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15526,7 +15544,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15544,7 +15562,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15561,7 +15579,9 @@
       <c r="K600" s="20"/>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601" s="40"/>
+      <c r="A601" s="40">
+        <v>46357</v>
+      </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
       <c r="D601" s="39"/>
@@ -15641,20 +15661,36 @@
       <c r="K605" s="20"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="41"/>
-      <c r="B606" s="15"/>
-      <c r="C606" s="42"/>
-      <c r="D606" s="43"/>
+      <c r="A606" s="40"/>
+      <c r="B606" s="20"/>
+      <c r="C606" s="13"/>
+      <c r="D606" s="39"/>
       <c r="E606" s="9"/>
-      <c r="F606" s="15"/>
-      <c r="G606" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H606" s="43"/>
+      <c r="F606" s="20"/>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H606" s="39"/>
       <c r="I606" s="9"/>
-      <c r="J606" s="12"/>
-      <c r="K606" s="15"/>
+      <c r="J606" s="11"/>
+      <c r="K606" s="20"/>
+    </row>
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A607" s="41"/>
+      <c r="B607" s="15"/>
+      <c r="C607" s="42"/>
+      <c r="D607" s="43"/>
+      <c r="E607" s="9"/>
+      <c r="F607" s="15"/>
+      <c r="G607" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H607" s="43"/>
+      <c r="I607" s="9"/>
+      <c r="J607" s="12"/>
+      <c r="K607" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CITY MARKET/AMBAT, MARILOU.xlsx
+++ b/REGULAR/CITY MARKET/AMBAT, MARILOU.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="448">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1259,9 +1259,6 @@
     <t>FL(4-0-0)</t>
   </si>
   <si>
-    <t>BDAY 3/23/2023</t>
-  </si>
-  <si>
     <t>SOLO P(1-0-0)</t>
   </si>
   <si>
@@ -1310,9 +1307,6 @@
     <t>8/1-9/2023</t>
   </si>
   <si>
-    <t>10/31 , 11/4/2023</t>
-  </si>
-  <si>
     <t>10/16,17/2023</t>
   </si>
   <si>
@@ -1320,6 +1314,69 @@
   </si>
   <si>
     <t>01/03-05,08,09/2024</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/16,18,21,23,30/2023</t>
+  </si>
+  <si>
+    <t>UT(1-3-17)</t>
+  </si>
+  <si>
+    <t>10/31 , 11/4/2023 (10/28)</t>
+  </si>
+  <si>
+    <t>UT(0-5-41)</t>
+  </si>
+  <si>
+    <t>UT(0-1-22)</t>
+  </si>
+  <si>
+    <t>8/11,16,18,25/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-53)</t>
+  </si>
+  <si>
+    <t>A(6-0-0)</t>
+  </si>
+  <si>
+    <t>7/22,25-27,29,31/2023</t>
+  </si>
+  <si>
+    <t>UT(0-7-24)</t>
+  </si>
+  <si>
+    <t>UT(0-5-31)</t>
+  </si>
+  <si>
+    <t>4/6,8,10,25/2023</t>
+  </si>
+  <si>
+    <t>UT(0-4-23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BDAY 3/13/2023 </t>
+  </si>
+  <si>
+    <t>3/4,22,30/2023</t>
+  </si>
+  <si>
+    <t>UT(2-2-28)</t>
+  </si>
+  <si>
+    <t>UT(0-3-39)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>1/3,30/2023</t>
+  </si>
+  <si>
+    <t>UT(1-3-27)</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2086,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K607" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K624" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2358,11 +2415,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K607"/>
+  <dimension ref="A2:K624"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A550" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F568" sqref="F568"/>
+      <pane ySplit="3720" topLeftCell="A547" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F558" sqref="F558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,7 +2580,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>109.99000000000008</v>
+        <v>74.814999999999898</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -14221,7 +14278,7 @@
         <v>44713</v>
       </c>
       <c r="B534" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C534" s="13">
         <v>1.25</v>
@@ -14245,7 +14302,7 @@
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C535" s="13"/>
       <c r="D535" s="39">
@@ -14267,7 +14324,7 @@
         <v>44743</v>
       </c>
       <c r="B536" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C536" s="13">
         <v>1.25</v>
@@ -14285,7 +14342,7 @@
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
       <c r="K536" s="20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
@@ -14293,7 +14350,7 @@
         <v>44774</v>
       </c>
       <c r="B537" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C537" s="13">
         <v>1.25</v>
@@ -14319,7 +14376,7 @@
         <v>44805</v>
       </c>
       <c r="B538" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C538" s="13">
         <v>1.25</v>
@@ -14343,7 +14400,7 @@
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C539" s="13"/>
       <c r="D539" s="39">
@@ -14407,7 +14464,7 @@
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C542" s="13"/>
       <c r="D542" s="39">
@@ -14429,7 +14486,7 @@
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C543" s="13"/>
       <c r="D543" s="39">
@@ -14495,7 +14552,7 @@
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C546" s="13"/>
       <c r="D546" s="39">
@@ -14511,13 +14568,13 @@
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
       <c r="K546" s="49" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C547" s="13"/>
       <c r="D547" s="39">
@@ -14563,7 +14620,7 @@
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39">
@@ -14579,13 +14636,13 @@
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
       <c r="K549" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C550" s="13"/>
       <c r="D550" s="39">
@@ -14624,11 +14681,15 @@
       <c r="A552" s="40">
         <v>44927</v>
       </c>
-      <c r="B552" s="20"/>
+      <c r="B552" s="20" t="s">
+        <v>445</v>
+      </c>
       <c r="C552" s="13">
         <v>1.25</v>
       </c>
-      <c r="D552" s="39"/>
+      <c r="D552" s="39">
+        <v>2</v>
+      </c>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
       <c r="G552" s="13">
@@ -14638,38 +14699,36 @@
       <c r="H552" s="39"/>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="20"/>
+      <c r="K552" s="20" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A553" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C553" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D553" s="39"/>
+        <v>447</v>
+      </c>
+      <c r="C553" s="13"/>
+      <c r="D553" s="39">
+        <v>1.431</v>
+      </c>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
-      <c r="G553" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G553" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H553" s="39"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B554" s="20" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C554" s="13">
         <v>1.25</v>
@@ -14685,65 +14744,57 @@
       <c r="I554" s="9"/>
       <c r="J554" s="11"/>
       <c r="K554" s="20" t="s">
-        <v>408</v>
+        <v>77</v>
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A555" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="C555" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D555" s="39"/>
+        <v>418</v>
+      </c>
+      <c r="C555" s="13"/>
+      <c r="D555" s="39">
+        <v>1</v>
+      </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G555" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H555" s="39"/>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
       <c r="K555" s="49">
-        <v>45043</v>
+        <v>44982</v>
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A556" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C556" s="13">
-        <v>1.25</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C556" s="13"/>
       <c r="D556" s="39">
-        <v>3</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
-      <c r="G556" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G556" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H556" s="39"/>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
-      <c r="K556" s="20" t="s">
-        <v>410</v>
-      </c>
+      <c r="K556" s="49"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="B557" s="20" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C557" s="13">
         <v>1.25</v>
@@ -14755,72 +14806,62 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H557" s="39">
-        <v>2</v>
-      </c>
+      <c r="H557" s="39"/>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
       <c r="K557" s="20" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A558" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A558" s="40"/>
       <c r="B558" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C558" s="13">
-        <v>1.25</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C558" s="13"/>
       <c r="D558" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G558" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H558" s="39"/>
       <c r="I558" s="9"/>
       <c r="J558" s="11"/>
       <c r="K558" s="20" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A559" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C559" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D559" s="39"/>
+        <v>443</v>
+      </c>
+      <c r="C559" s="13"/>
+      <c r="D559" s="39">
+        <v>2.3079999999999998</v>
+      </c>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H559" s="39">
-        <v>7</v>
-      </c>
+      <c r="G559" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H559" s="39"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20" t="s">
-        <v>424</v>
-      </c>
+      <c r="K559" s="20"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B560" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B560" s="20" t="s">
+        <v>408</v>
+      </c>
       <c r="C560" s="13">
         <v>1.25</v>
       </c>
@@ -14834,65 +14875,65 @@
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
+      <c r="K560" s="49">
+        <v>45043</v>
+      </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C561" s="13"/>
       <c r="D561" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20" t="s">
-        <v>425</v>
+      <c r="K561" s="49" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="C562" s="13"/>
-      <c r="D562" s="39"/>
+      <c r="D562" s="39">
+        <v>0.54800000000000004</v>
+      </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
       <c r="G562" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H562" s="39">
-        <v>2</v>
-      </c>
+      <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20" t="s">
-        <v>426</v>
-      </c>
+      <c r="K562" s="49"/>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B563" s="20"/>
+        <v>45047</v>
+      </c>
+      <c r="B563" s="20" t="s">
+        <v>218</v>
+      </c>
       <c r="C563" s="13">
         <v>1.25</v>
       </c>
-      <c r="D563" s="39"/>
+      <c r="D563" s="39">
+        <v>3</v>
+      </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
       <c r="G563" s="13">
@@ -14902,59 +14943,65 @@
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20"/>
+      <c r="K563" s="20" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C564" s="13">
-        <v>1.25</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="C564" s="13"/>
       <c r="D564" s="39">
-        <v>5</v>
+        <v>0.69</v>
       </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20" t="s">
-        <v>428</v>
-      </c>
+      <c r="K564" s="20"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="B565" s="20"/>
-      <c r="C565" s="13"/>
+      <c r="A565" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B565" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D565" s="39"/>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H565" s="39"/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H565" s="39">
+        <v>2</v>
+      </c>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
+      <c r="K565" s="20" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A566" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B566" s="20"/>
+      <c r="A566" s="40"/>
+      <c r="B566" s="20" t="s">
+        <v>437</v>
+      </c>
       <c r="C566" s="13"/>
-      <c r="D566" s="39"/>
+      <c r="D566" s="39">
+        <v>0.92500000000000004</v>
+      </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
       <c r="G566" s="13" t="str">
@@ -14968,29 +15015,39 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B567" s="20"/>
-      <c r="C567" s="13"/>
-      <c r="D567" s="39"/>
+        <v>45108</v>
+      </c>
+      <c r="B567" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D567" s="39">
+        <v>2</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
+      <c r="K567" s="20" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B568" s="20"/>
+      <c r="A568" s="40"/>
+      <c r="B568" s="20" t="s">
+        <v>435</v>
+      </c>
       <c r="C568" s="13"/>
-      <c r="D568" s="39"/>
+      <c r="D568" s="39">
+        <v>6</v>
+      </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
       <c r="G568" s="13" t="str">
@@ -15000,15 +15057,19 @@
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="20" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B569" s="20"/>
+      <c r="A569" s="40"/>
+      <c r="B569" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="C569" s="13"/>
-      <c r="D569" s="39"/>
+      <c r="D569" s="39">
+        <v>0.254</v>
+      </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
       <c r="G569" s="13" t="str">
@@ -15022,29 +15083,39 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B570" s="20"/>
-      <c r="C570" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B570" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D570" s="39"/>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H570" s="39"/>
+      <c r="G570" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H570" s="39">
+        <v>7</v>
+      </c>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="20"/>
+      <c r="K570" s="20" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B571" s="20"/>
+      <c r="A571" s="40"/>
+      <c r="B571" s="20" t="s">
+        <v>412</v>
+      </c>
       <c r="C571" s="13"/>
-      <c r="D571" s="39"/>
+      <c r="D571" s="39">
+        <v>4</v>
+      </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
       <c r="G571" s="13" t="str">
@@ -15054,15 +15125,19 @@
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="20"/>
+      <c r="K571" s="20" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B572" s="20"/>
+      <c r="A572" s="40"/>
+      <c r="B572" s="20" t="s">
+        <v>434</v>
+      </c>
       <c r="C572" s="13"/>
-      <c r="D572" s="39"/>
+      <c r="D572" s="39">
+        <v>0.11000000000000001</v>
+      </c>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
       <c r="G572" s="13" t="str">
@@ -15076,16 +15151,22 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B573" s="20"/>
-      <c r="C573" s="13"/>
-      <c r="D573" s="39"/>
+        <v>45170</v>
+      </c>
+      <c r="B573" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="C573" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D573" s="39">
+        <v>0.17100000000000001</v>
+      </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G573" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
@@ -15094,27 +15175,35 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B574" s="20"/>
-      <c r="C574" s="13"/>
-      <c r="D574" s="39"/>
+        <v>45200</v>
+      </c>
+      <c r="B574" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D574" s="39">
+        <v>2</v>
+      </c>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
-      <c r="K574" s="20"/>
+      <c r="K574" s="20" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A575" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B575" s="20"/>
+      <c r="A575" s="40"/>
+      <c r="B575" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
       <c r="E575" s="9"/>
@@ -15123,18 +15212,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H575" s="39"/>
+      <c r="H575" s="39">
+        <v>2</v>
+      </c>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="20"/>
+      <c r="K575" s="20" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40">
-        <v>45597</v>
-      </c>
-      <c r="B576" s="20"/>
+      <c r="A576" s="40"/>
+      <c r="B576" s="20" t="s">
+        <v>431</v>
+      </c>
       <c r="C576" s="13"/>
-      <c r="D576" s="39"/>
+      <c r="D576" s="39">
+        <v>0.71</v>
+      </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
       <c r="G576" s="13" t="str">
@@ -15147,12 +15242,14 @@
       <c r="K576" s="20"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40">
-        <v>45627</v>
-      </c>
-      <c r="B577" s="20"/>
+      <c r="A577" s="40"/>
+      <c r="B577" s="20" t="s">
+        <v>418</v>
+      </c>
       <c r="C577" s="13"/>
-      <c r="D577" s="39"/>
+      <c r="D577" s="39">
+        <v>1</v>
+      </c>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
       <c r="G577" s="13" t="str">
@@ -15162,20 +15259,28 @@
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20"/>
+      <c r="K577" s="49">
+        <v>45206</v>
+      </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45658</v>
-      </c>
-      <c r="B578" s="20"/>
-      <c r="C578" s="13"/>
-      <c r="D578" s="39"/>
+        <v>45231</v>
+      </c>
+      <c r="B578" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C578" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D578" s="39">
+        <v>0.16200000000000003</v>
+      </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G578" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
@@ -15184,29 +15289,39 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45689</v>
-      </c>
-      <c r="B579" s="20"/>
-      <c r="C579" s="13"/>
-      <c r="D579" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B579" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D579" s="39">
+        <v>5</v>
+      </c>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
+      <c r="K579" s="20" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40">
-        <v>45717</v>
-      </c>
-      <c r="B580" s="20"/>
+      <c r="A580" s="40"/>
+      <c r="B580" s="20" t="s">
+        <v>427</v>
+      </c>
       <c r="C580" s="13"/>
-      <c r="D580" s="39"/>
+      <c r="D580" s="39">
+        <v>5</v>
+      </c>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
       <c r="G580" s="13" t="str">
@@ -15216,15 +15331,19 @@
       <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="20" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40">
-        <v>45748</v>
-      </c>
-      <c r="B581" s="20"/>
+      <c r="A581" s="40"/>
+      <c r="B581" s="20" t="s">
+        <v>429</v>
+      </c>
       <c r="C581" s="13"/>
-      <c r="D581" s="39"/>
+      <c r="D581" s="39">
+        <v>1.4100000000000001</v>
+      </c>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
       <c r="G581" s="13" t="str">
@@ -15237,8 +15356,8 @@
       <c r="K581" s="20"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40">
-        <v>45778</v>
+      <c r="A582" s="48" t="s">
+        <v>425</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15256,7 +15375,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45809</v>
+        <v>45292</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15274,7 +15393,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45839</v>
+        <v>45323</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15292,7 +15411,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45870</v>
+        <v>45352</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15310,7 +15429,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45901</v>
+        <v>45383</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15328,7 +15447,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45931</v>
+        <v>45413</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15346,7 +15465,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45962</v>
+        <v>45444</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15364,7 +15483,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45992</v>
+        <v>45474</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15382,7 +15501,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>46023</v>
+        <v>45505</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15400,7 +15519,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>46054</v>
+        <v>45536</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15418,7 +15537,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>46082</v>
+        <v>45566</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15436,7 +15555,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>46113</v>
+        <v>45597</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15454,7 +15573,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>46143</v>
+        <v>45627</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15472,7 +15591,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>46174</v>
+        <v>45658</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15490,7 +15609,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>46204</v>
+        <v>45689</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15508,7 +15627,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>46235</v>
+        <v>45717</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15526,7 +15645,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>46266</v>
+        <v>45748</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15544,7 +15663,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>46296</v>
+        <v>45778</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15562,7 +15681,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>46327</v>
+        <v>45809</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15580,7 +15699,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>46357</v>
+        <v>45839</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15597,7 +15716,9 @@
       <c r="K601" s="20"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="40"/>
+      <c r="A602" s="40">
+        <v>45870</v>
+      </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
       <c r="D602" s="39"/>
@@ -15613,7 +15734,9 @@
       <c r="K602" s="20"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A603" s="40"/>
+      <c r="A603" s="40">
+        <v>45901</v>
+      </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
       <c r="D603" s="39"/>
@@ -15629,7 +15752,9 @@
       <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40"/>
+      <c r="A604" s="40">
+        <v>45931</v>
+      </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
       <c r="D604" s="39"/>
@@ -15645,7 +15770,9 @@
       <c r="K604" s="20"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="40"/>
+      <c r="A605" s="40">
+        <v>45962</v>
+      </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
       <c r="D605" s="39"/>
@@ -15661,7 +15788,9 @@
       <c r="K605" s="20"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A606" s="40"/>
+      <c r="A606" s="40">
+        <v>45992</v>
+      </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
       <c r="D606" s="39"/>
@@ -15677,20 +15806,316 @@
       <c r="K606" s="20"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A607" s="41"/>
-      <c r="B607" s="15"/>
-      <c r="C607" s="42"/>
-      <c r="D607" s="43"/>
+      <c r="A607" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B607" s="20"/>
+      <c r="C607" s="13"/>
+      <c r="D607" s="39"/>
       <c r="E607" s="9"/>
-      <c r="F607" s="15"/>
-      <c r="G607" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H607" s="43"/>
+      <c r="F607" s="20"/>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H607" s="39"/>
       <c r="I607" s="9"/>
-      <c r="J607" s="12"/>
-      <c r="K607" s="15"/>
+      <c r="J607" s="11"/>
+      <c r="K607" s="20"/>
+    </row>
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" s="40">
+        <v>46054</v>
+      </c>
+      <c r="B608" s="20"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="39"/>
+      <c r="E608" s="9"/>
+      <c r="F608" s="20"/>
+      <c r="G608" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H608" s="39"/>
+      <c r="I608" s="9"/>
+      <c r="J608" s="11"/>
+      <c r="K608" s="20"/>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A609" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B609" s="20"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="39"/>
+      <c r="E609" s="9"/>
+      <c r="F609" s="20"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H609" s="39"/>
+      <c r="I609" s="9"/>
+      <c r="J609" s="11"/>
+      <c r="K609" s="20"/>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B610" s="20"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="39"/>
+      <c r="E610" s="9"/>
+      <c r="F610" s="20"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H610" s="39"/>
+      <c r="I610" s="9"/>
+      <c r="J610" s="11"/>
+      <c r="K610" s="20"/>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A611" s="40">
+        <v>46143</v>
+      </c>
+      <c r="B611" s="20"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="39"/>
+      <c r="E611" s="9"/>
+      <c r="F611" s="20"/>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H611" s="39"/>
+      <c r="I611" s="9"/>
+      <c r="J611" s="11"/>
+      <c r="K611" s="20"/>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A612" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B612" s="20"/>
+      <c r="C612" s="13"/>
+      <c r="D612" s="39"/>
+      <c r="E612" s="9"/>
+      <c r="F612" s="20"/>
+      <c r="G612" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H612" s="39"/>
+      <c r="I612" s="9"/>
+      <c r="J612" s="11"/>
+      <c r="K612" s="20"/>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="40">
+        <v>46204</v>
+      </c>
+      <c r="B613" s="20"/>
+      <c r="C613" s="13"/>
+      <c r="D613" s="39"/>
+      <c r="E613" s="9"/>
+      <c r="F613" s="20"/>
+      <c r="G613" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H613" s="39"/>
+      <c r="I613" s="9"/>
+      <c r="J613" s="11"/>
+      <c r="K613" s="20"/>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A614" s="40">
+        <v>46235</v>
+      </c>
+      <c r="B614" s="20"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="39"/>
+      <c r="E614" s="9"/>
+      <c r="F614" s="20"/>
+      <c r="G614" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H614" s="39"/>
+      <c r="I614" s="9"/>
+      <c r="J614" s="11"/>
+      <c r="K614" s="20"/>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A615" s="40">
+        <v>46266</v>
+      </c>
+      <c r="B615" s="20"/>
+      <c r="C615" s="13"/>
+      <c r="D615" s="39"/>
+      <c r="E615" s="9"/>
+      <c r="F615" s="20"/>
+      <c r="G615" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H615" s="39"/>
+      <c r="I615" s="9"/>
+      <c r="J615" s="11"/>
+      <c r="K615" s="20"/>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A616" s="40">
+        <v>46296</v>
+      </c>
+      <c r="B616" s="20"/>
+      <c r="C616" s="13"/>
+      <c r="D616" s="39"/>
+      <c r="E616" s="9"/>
+      <c r="F616" s="20"/>
+      <c r="G616" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H616" s="39"/>
+      <c r="I616" s="9"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="20"/>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617" s="40">
+        <v>46327</v>
+      </c>
+      <c r="B617" s="20"/>
+      <c r="C617" s="13"/>
+      <c r="D617" s="39"/>
+      <c r="E617" s="9"/>
+      <c r="F617" s="20"/>
+      <c r="G617" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H617" s="39"/>
+      <c r="I617" s="9"/>
+      <c r="J617" s="11"/>
+      <c r="K617" s="20"/>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A618" s="40">
+        <v>46357</v>
+      </c>
+      <c r="B618" s="20"/>
+      <c r="C618" s="13"/>
+      <c r="D618" s="39"/>
+      <c r="E618" s="9"/>
+      <c r="F618" s="20"/>
+      <c r="G618" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H618" s="39"/>
+      <c r="I618" s="9"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="20"/>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="40"/>
+      <c r="B619" s="20"/>
+      <c r="C619" s="13"/>
+      <c r="D619" s="39"/>
+      <c r="E619" s="9"/>
+      <c r="F619" s="20"/>
+      <c r="G619" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H619" s="39"/>
+      <c r="I619" s="9"/>
+      <c r="J619" s="11"/>
+      <c r="K619" s="20"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620" s="40"/>
+      <c r="B620" s="20"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="39"/>
+      <c r="E620" s="9"/>
+      <c r="F620" s="20"/>
+      <c r="G620" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="39"/>
+      <c r="I620" s="9"/>
+      <c r="J620" s="11"/>
+      <c r="K620" s="20"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="40"/>
+      <c r="B621" s="20"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="39"/>
+      <c r="E621" s="9"/>
+      <c r="F621" s="20"/>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H621" s="39"/>
+      <c r="I621" s="9"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="20"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" s="40"/>
+      <c r="B622" s="20"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="39"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="20"/>
+      <c r="G622" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="39"/>
+      <c r="I622" s="9"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="20"/>
+    </row>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" s="40"/>
+      <c r="B623" s="20"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="39"/>
+      <c r="E623" s="9"/>
+      <c r="F623" s="20"/>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H623" s="39"/>
+      <c r="I623" s="9"/>
+      <c r="J623" s="11"/>
+      <c r="K623" s="20"/>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="41"/>
+      <c r="B624" s="15"/>
+      <c r="C624" s="42"/>
+      <c r="D624" s="43"/>
+      <c r="E624" s="9"/>
+      <c r="F624" s="15"/>
+      <c r="G624" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="43"/>
+      <c r="I624" s="9"/>
+      <c r="J624" s="12"/>
+      <c r="K624" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15807,14 +16232,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.5150000000000001</v>
+        <v>1.431</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
